--- a/FinalSummaryBitcoin.xlsx
+++ b/FinalSummaryBitcoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truon\Desktop\Classes\ECE\ECE111\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyjohnston/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57364ADC-81AD-4DC7-A398-B08EF8B10A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EDFEB0-1E24-294A-9F32-3FE7E4953430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2010" windowWidth="18592" windowHeight="6000" xr2:uid="{D18BE138-426C-4988-9824-F37620A6B293}"/>
+    <workbookView xWindow="1260" yWindow="2020" windowWidth="18600" windowHeight="6000" xr2:uid="{D18BE138-426C-4988-9824-F37620A6B293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Last Name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>zjohnsto@ucsd.edu</t>
+  </si>
+  <si>
+    <t>A15289126</t>
   </si>
 </sst>
 </file>
@@ -461,22 +464,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B84DFBA-F950-414A-B6A5-9A2E57327603}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1328125" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="6" width="27.265625" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -561,12 +563,15 @@
         <v>43490.966512387691</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>39919</v>
